--- a/QLDA/Template/ReportTieuDuan.xlsx
+++ b/QLDA/Template/ReportTieuDuan.xlsx
@@ -32,9 +32,6 @@
     <t>Tên dự án</t>
   </si>
   <si>
-    <t>Tổng hợp vốn</t>
-  </si>
-  <si>
     <t>Tên tiểu dự án</t>
   </si>
   <si>
@@ -48,6 +45,9 @@
   </si>
   <si>
     <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tổng hợp tiểu dự án</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -444,22 +444,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
